--- a/Daily Activity Tracker/Daily_Activity_Tracker_September.xlsx
+++ b/Daily Activity Tracker/Daily_Activity_Tracker_September.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chandrakanb\chandrakanb\Daily Activity Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C3FBE6-42BD-42EC-8301-7603A3979658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02334CEC-8839-4859-B82B-F85C4730D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day_month" sheetId="1" r:id="rId1"/>
     <sheet name="2nd_September" sheetId="2" r:id="rId2"/>
     <sheet name="3rd_September" sheetId="3" r:id="rId3"/>
     <sheet name="4th_September" sheetId="4" r:id="rId4"/>
+    <sheet name="5th_September" sheetId="5" r:id="rId5"/>
+    <sheet name="6th_September" sheetId="6" r:id="rId6"/>
+    <sheet name="9th_September" sheetId="7" r:id="rId7"/>
+    <sheet name="10th_September" sheetId="8" r:id="rId8"/>
+    <sheet name="11th_September" sheetId="9" r:id="rId9"/>
+    <sheet name="12th_September" sheetId="10" r:id="rId10"/>
+    <sheet name="13th_September" sheetId="11" r:id="rId11"/>
+    <sheet name="16th_September" sheetId="12" r:id="rId12"/>
+    <sheet name="18th_September" sheetId="13" r:id="rId13"/>
+    <sheet name="20th_September" sheetId="14" r:id="rId14"/>
+    <sheet name="21st_September" sheetId="15" r:id="rId15"/>
+    <sheet name="23rd_September" sheetId="16" r:id="rId16"/>
+    <sheet name="24th_September" sheetId="17" r:id="rId17"/>
+    <sheet name="25th_September" sheetId="18" r:id="rId18"/>
+    <sheet name="26th_September" sheetId="19" r:id="rId19"/>
+    <sheet name="27th_September" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="156">
   <si>
     <t xml:space="preserve">Sr.No. </t>
   </si>
@@ -108,12 +124,6 @@
   </si>
   <si>
     <t>Created and Executed "KPIT_TC_DRT_CAT_004"</t>
-  </si>
-  <si>
-    <t>Installed Kite Build on 200.9 Bench 09</t>
-  </si>
-  <si>
-    <t>Git pull on Bench 09</t>
   </si>
   <si>
     <t>Rework Completed
@@ -125,6 +135,454 @@
   </si>
   <si>
     <t>Replaced and removed Duplicate Post condition to disconnect USB</t>
+  </si>
+  <si>
+    <t>Installed Kite Build on 200.9 Bench 09</t>
+  </si>
+  <si>
+    <t>Git pull on Bench 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended DSR Meeting </t>
+  </si>
+  <si>
+    <t>System Maintenance Activity of PW-241(Bench 09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared Skalaton "KPIT_TC_DRT_CLK_1203" </t>
+  </si>
+  <si>
+    <t>KT Session</t>
+  </si>
+  <si>
+    <t>Taken Git Pull on Bench 09</t>
+  </si>
+  <si>
+    <t>Performed Sanity on Bench 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triggered Overnight Execution on Bench 09 </t>
+  </si>
+  <si>
+    <t>Updated config file for Bench 09.</t>
+  </si>
+  <si>
+    <t>Checked the Bench Systems shared Access for Bench 09.</t>
+  </si>
+  <si>
+    <t>Calibation Activity of Bench 09.</t>
+  </si>
+  <si>
+    <t>Checked for the files that were told to delete by Amit san on the sytem of Bench 09.</t>
+  </si>
+  <si>
+    <t>Falshed Base Build on Bench 09</t>
+  </si>
+  <si>
+    <t>Connected Bench 09 to Jenkins pipeline</t>
+  </si>
+  <si>
+    <t>DSR Meeting</t>
+  </si>
+  <si>
+    <t>Flashed OBU A14 Build on Bench 09</t>
+  </si>
+  <si>
+    <t>Taken New Git Clone for New Ddev Cycle on Bench 09</t>
+  </si>
+  <si>
+    <t>Added Testpacks in new Cycle Ddev  Cycle for Bench 09</t>
+  </si>
+  <si>
+    <t>Performed Basic Sanity on Bench 09</t>
+  </si>
+  <si>
+    <t>Triggered and Monitored Daytime execution on Bench 09</t>
+  </si>
+  <si>
+    <t>Analysis of Daytime execution of Bench 09</t>
+  </si>
+  <si>
+    <t>Checked the USB Device Check Python File with mentioned Scenarios</t>
+  </si>
+  <si>
+    <t>Checked the IS_Audio _Playing Command on Bench 09 and its working</t>
+  </si>
+  <si>
+    <t>Re-Executed the Failed Test Scripts in Daytime</t>
+  </si>
+  <si>
+    <t>Changed the Config file for Daytime Execution</t>
+  </si>
+  <si>
+    <t>Attended the KT Session</t>
+  </si>
+  <si>
+    <t>Flashed A14 Base Build on Bench 09 and Bench 08</t>
+  </si>
+  <si>
+    <t>Edited the config files for Overnight Execution</t>
+  </si>
+  <si>
+    <t>Connected Bench 09 to Jenkins Pipeline</t>
+  </si>
+  <si>
+    <t>Auto Flashing Analysis</t>
+  </si>
+  <si>
+    <t>Rework
+- "KPIT_TC_DRT_KEY_021"</t>
+  </si>
+  <si>
+    <t>Helped Vtthal and Yukta in manual testing of GTC Related Test Scripts</t>
+  </si>
+  <si>
+    <t>Published the overnight execution reports of Bench 06.</t>
+  </si>
+  <si>
+    <t>Overnight Execution Analysis of Bench 06.</t>
+  </si>
+  <si>
+    <t>Modified and Executed Transformed Test Scripts of Bench 09.</t>
+  </si>
+  <si>
+    <t>Updated the Modified Test Scripts Reports on KAP for Bench 09.</t>
+  </si>
+  <si>
+    <t>Fixed and Executed Overnight Execution Failure of Bench 01 and Bench 03 on Bench 03.</t>
+  </si>
+  <si>
+    <t>Modified and Executed Transformed Test Scripts of Bench 01 and Bench 03 along with Vitthal.</t>
+  </si>
+  <si>
+    <t>Taken Git Pull on Bench 09.</t>
+  </si>
+  <si>
+    <t>Taken Git Pull on Bench 06.</t>
+  </si>
+  <si>
+    <t>Restarted the system and tuner and performed Sanity on Bench 06.</t>
+  </si>
+  <si>
+    <t>Restarted the system and performed Sanity on Bench 09.</t>
+  </si>
+  <si>
+    <t>Connected Bench 06 to Jenkins Pipeline.</t>
+  </si>
+  <si>
+    <t>Connected Bench 09 to Jenkins Pipeline.</t>
+  </si>
+  <si>
+    <t>Published the Overnight Execution Reports of Bench 09.</t>
+  </si>
+  <si>
+    <t>Updated the Auto Flashing Status  Sheet.</t>
+  </si>
+  <si>
+    <t>Attended the DSR Meeting</t>
+  </si>
+  <si>
+    <t>Performed Calibration of Bench 09.</t>
+  </si>
+  <si>
+    <t>Helped Yukta in HLP precondition modification.</t>
+  </si>
+  <si>
+    <t>Modified and Executed Transformed Test Scripts of Bench 01 and Bench 03.</t>
+  </si>
+  <si>
+    <t>Raised Review in Unipro for "KPIT_TC_DRT_KEY_022"</t>
+  </si>
+  <si>
+    <t>Execute the CAT TS and Assign for review</t>
+  </si>
+  <si>
+    <t>Make Sanity Test Pack for Bench 09.</t>
+  </si>
+  <si>
+    <t>Closed Review in Unipro for "KPIT_TC_DRT_KEY_022"</t>
+  </si>
+  <si>
+    <t>Taken Git Pull, before performing sanity on on Bench 09.</t>
+  </si>
+  <si>
+    <t>Restarted the system and Performed Sanity on Bench 09.</t>
+  </si>
+  <si>
+    <t>Rework - "KPIT_TC_DRT_KEY_021"</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Rework - "KPIT_TC_DRT_CAT_002"</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Raise Review for "KPIT_TC_DRT_AVG_223"</t>
+  </si>
+  <si>
+    <t>Raise Review for "KPIT_TC_DRT_CAT_004"</t>
+  </si>
+  <si>
+    <t>Test Script Creation - "KPIT_TC_DRT_CAT_005"</t>
+  </si>
+  <si>
+    <t>Created VIN Number VIN_1609 with the help of Sahil</t>
+  </si>
+  <si>
+    <t>Break(Breakfast)</t>
+  </si>
+  <si>
+    <t>Check the Created VIN_1609 is working or not</t>
+  </si>
+  <si>
+    <t>Check which Vin Number working (VIN1609, VIN_1609, VIN1999)</t>
+  </si>
+  <si>
+    <t>Checked New VIN8888 on Bench 09</t>
+  </si>
+  <si>
+    <t>Made Changes in The Acuralink Test Pack for VIN8888, Executed the on Bench 09</t>
+  </si>
+  <si>
+    <t>Connected the Pendrive to Harness and checked for USB disconnection Issue
+- Connected the Pendrive directly to Harness
+- Executed the "KPIT_TC_DRT_KEY_013" in 10 Iterations(All Passed(No Discconnection of USB is Obeserved))</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Attended Meeting DRT Meeting with Vinod San</t>
+  </si>
+  <si>
+    <t>Added Test Script to New Test Cycle "DDEV_Repo_750" for Bench 09.</t>
+  </si>
+  <si>
+    <t>Added New Test Packs to Config file For Bench 09</t>
+  </si>
+  <si>
+    <t>Updated and checked  ROI for the ADB Precondition.
+- Updated the ROI for ADB Precondition.
+- Executed the whole ADB pack, checked that next scripts are passed.</t>
+  </si>
+  <si>
+    <t>Checked the new VIN Number VIN8888 Message Sequence and FB Modification.
+- Executed the All Preconditions for "KPIT_TC_DRT_HLP_058".
+- Modified the Test pattern file and executed the pack in 1 iteration.</t>
+  </si>
+  <si>
+    <t>Changed the MUX  and Check the USB disconnection issue on Bench 09.</t>
+  </si>
+  <si>
+    <t>Performed calibration activity on Bench 09.</t>
+  </si>
+  <si>
+    <t>Checked and tested the working Chrome driver for the Bench 09.
+- Searched for working chrome driver on web.
+- Tested multiple version of chrome driver.
+- Got one input form Swapnil and checked that the chrome driver is working.
+- Set and checked that chrome driver is given by by Swapnil.</t>
+  </si>
+  <si>
+    <t>Helped Yukta San to Set and check chrome driver on Bench 09, given by by Swapnil.</t>
+  </si>
+  <si>
+    <t>Updated the Kite Issue observed in Tracker Sheet</t>
+  </si>
+  <si>
+    <t>Rework - "KPIT_TC_DRT_CAT_002"
+- Added Resource Images in Both Repo's "705" and "750"
+- Modified Test Scripts in Both Repo's "705" and "750"
+- Modified Test Packs in Both Repo's "705" and "750"
+- Executed Scripts in Both Repo's "705" and "750"</t>
+  </si>
+  <si>
+    <t>Rework - "KPIT_TC_DRT_CAT_004"
+- Added Resource Images in Both Repo's "705" and "750"
+- Modified Test Scripts in Both Repo's "705" and "750"
+- Modified Test Packs in Both Repo's "705" and "750"
+- Executed Scripts in Both Repo's "705" and "750"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified Config file for the Modified Test pack
+- Modified the Test Pack for the Modified Test Pack for Config 2.4.cfg and Config 2.4_705.cfg </t>
+  </si>
+  <si>
+    <t>Updated Reports for "KPIT_TC_DRT_CAT_004"</t>
+  </si>
+  <si>
+    <t>Take Back of KITE File For Installation</t>
+  </si>
+  <si>
+    <t>Restarted the system and  Installed New KITE Build 200.12</t>
+  </si>
+  <si>
+    <t>Rework - "KPIT_TC_DRT_CAT_002"
+- remove the blind wait and execute the scripts in 3 Iteration
+- Update the latest reports</t>
+  </si>
+  <si>
+    <t>Raised Review for "KPIT_TC_DRT_KEY_021"</t>
+  </si>
+  <si>
+    <t>Performed Sanity on Bench 09.</t>
+  </si>
+  <si>
+    <t>Mail scannig PD (Roham Image)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked Camera Calibration on Bench 09
+- Restarted Bench 09 as the KITE is not starting.
+- Checked Camera Calibration of Bench 09 for Home Screen and HLC Screen
+- Executed the Set VIN Setting TYAW Scripts from both Repo's 
+</t>
+  </si>
+  <si>
+    <t>Helped Vaishnavi in Update and Set Chroem Driver</t>
+  </si>
+  <si>
+    <t>Helped Roahn in Update and Set Chroem Driver</t>
+  </si>
+  <si>
+    <t>Helped Vaishnavi to Set VIN Number amd  check the 1 to 1 message is coming or not</t>
+  </si>
+  <si>
+    <t>Flashed Base Build on Bench 09.</t>
+  </si>
+  <si>
+    <t>Complet</t>
+  </si>
+  <si>
+    <t>Modified Config files for 705 Repo on Bench 09.</t>
+  </si>
+  <si>
+    <t>Restarted the system as Kite is not starting on Bench 09.</t>
+  </si>
+  <si>
+    <t>Raise Ticket for KGPT</t>
+  </si>
+  <si>
+    <t>Raise Ticket for Unipro time log not replect</t>
+  </si>
+  <si>
+    <t>Raised TIMS ticket for the Error while Connecting PD to the Bench 09.</t>
+  </si>
+  <si>
+    <t>Installed KITE Build 33.02.24200.11 on Bench 09.
+- Taken backup of all required files.
+- uninstalled old KITE Build.
+- Installed KITE Build 33.02.24200.11.
+- Placed all required files at required location.</t>
+  </si>
+  <si>
+    <t>Triggered Execution post installing KITE build 33.02.24200.11.
+- Performed Basic Sanity on Bench 09.
+- Triggered Execution on Bench 09.</t>
+  </si>
+  <si>
+    <t>Attended KT Session</t>
+  </si>
+  <si>
+    <t>Re-installed KITE Build 33.02.24200.12 on Bench 09.
+- Taken backup of all required files.
+- Installed KITE Build 33.02.24200.12.
+- Placed all required files at required location.</t>
+  </si>
+  <si>
+    <t>Raised Unipro Review for "KPIT_TC_DRT_KEY_021"</t>
+  </si>
+  <si>
+    <t>Changed the MUX  on Bench 09.
+- Changed Mux  on Bench 09.
+- Tagging of wires an arrangeed the wires on Bench 09.
+- Run Sanity on Bench 09, post changing mux and tagging wires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check and try to reproduce the Kite launching issue.
+- Check and try to reproduce the Kite launching issue, as per steps told by Ganesh san(Kite), in 10 Iterations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken Backup and Installed Kite Build 2000.9
+- Taken latest kite backup.
+- Uninstalled Kite build 200.12.
+- Installed Kite build 200.9.
+- Placed the required files from backup taken.
+- Imported the kite settings from backup taken and restarted Kite.
+- Setted the Camera settings manually.
+- Checked the Camera calibration.
+</t>
+  </si>
+  <si>
+    <t>Raise Ticket for Unipro time log not replected</t>
+  </si>
+  <si>
+    <t>Kite Build 200.11 Installation</t>
+  </si>
+  <si>
+    <t>Take backup of all required files</t>
+  </si>
+  <si>
+    <t>Take screenshot of all required preference page settings.</t>
+  </si>
+  <si>
+    <t>Uninstall Kite Build 200.9.</t>
+  </si>
+  <si>
+    <t>Install Kite Build 200.11.</t>
+  </si>
+  <si>
+    <t>Place all required files from backup.</t>
+  </si>
+  <si>
+    <t>Set all required preference page manually.</t>
+  </si>
+  <si>
+    <t>Set camera settings manually.</t>
+  </si>
+  <si>
+    <t>Helped Yukta to set robotic arm setting on Bench X</t>
+  </si>
+  <si>
+    <t>Taken Git Pull For Both Repo's on Bench 09</t>
+  </si>
+  <si>
+    <t>Configered Resource file location for Both Repo's</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kite Build 200.11 Installation
+- Take backup of all required files.
+- Take screenshot of all required preference page settings.
+- Uninstall Kite Build 200.9.
+- Install Kite Build 200.11.
+- Place all required files from backup.
+- Set all required preference page manually.
+- Helped Yukta to set robotic arm setting on Bench X.
+- Set camera settings manually.
+- Taken Git Pull For Both Repo's on Bench 09.
+- Configered Resource file location for Both Repo's.</t>
+  </si>
+  <si>
+    <t>- Observed Daytime Execution on Bench 09.</t>
+  </si>
+  <si>
+    <t>Performed Basic sanity on Bench 09.</t>
+  </si>
+  <si>
+    <t>- Performed Basic sanity on Bench 09.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Triggered Daytime Execution on Bench 09 through config </t>
+  </si>
+  <si>
+    <t>Triggered Daytime Execution on Bench 09.
+- Performed Basic sanity on Bench 09.
+- Triggered Daytime Execution on Bench 09 through config 
+- Observed Daytime Execution on Bench 09.</t>
   </si>
 </sst>
 </file>
@@ -134,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +604,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -372,11 +852,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,11 +936,155 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1093,6 +1756,4477 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.39305555555555549</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>7.6388888888888062E-3</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.39305555555555549</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A25:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2-C2</f>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.40555555555555561</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3-C3</f>
+        <v>8.3333333333334147E-3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.40625</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.40902777777777782</v>
+      </c>
+      <c r="E4" s="8">
+        <f>D4-C4</f>
+        <v>2.7777777777778234E-3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.44513888888888892</v>
+      </c>
+      <c r="E5" s="8">
+        <f>D5-C5</f>
+        <v>2.8472222222222232E-2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.48819444444444438</v>
+      </c>
+      <c r="E6" s="8">
+        <f>D6-C6</f>
+        <v>4.1666666666666574E-2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E7" s="8">
+        <f>D8-C8</f>
+        <v>1.1805555555555625E-2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E8" s="11">
+        <f>D9-C9</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9:E21" si="1">D9-C9</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>5.7638888888888906E-2</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.73472222222222228</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>SEARCH("In-Progress", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>SEARCH("Incomplete", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>SEARCH("Completed", F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>"Completed, Incomplete, In-Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2-C2</f>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3-C3</f>
+        <v>2.7777777777778234E-3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="E4" s="8">
+        <f>D4-C4</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E5" s="8">
+        <f>D5-C5</f>
+        <v>5.4166666666666641E-2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f>D6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8">
+        <f>D8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f>D9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9:E21" si="1">D9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.8125</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>6.2499999999999778E-3</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0.12847222222222221</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>SEARCH("In-Progress", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>SEARCH("Incomplete", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>SEARCH("Completed", F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+      <formula1>"Completed, Incomplete, In-Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="A32:B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A28" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.40625</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E13" si="1">D2-C2</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.40625</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.13194444444444439</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21:E28" si="2">D21-C21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18">
+        <f>SUM(E2:E28)</f>
+        <v>0.2222222222222221</v>
+      </c>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="37" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="22"/>
+    </row>
+    <row r="40" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F28">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>SEARCH("In-Progress", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>SEARCH("Incomplete", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>SEARCH("Completed", F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+      <formula1>"Completed, Incomplete, In-Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D2" s="23">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="E2" s="23">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>3.9583333333333415E-2</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1805555555555514E-2</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777679E-3</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0.26597222222222233</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>SEARCH("In-Progress", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>SEARCH("Incomplete", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>SEARCH("Completed", F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+      <formula1>"Completed, Incomplete, In-Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A31" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E31" si="1">D2-C2</f>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7083333333333293E-2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222321E-2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="1"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.81944444444444442</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18">
+        <f>SUM(E2:E31)</f>
+        <v>0.33958333333333346</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F15 F17:F31">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>SEARCH("In-Progress", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>SEARCH("Incomplete", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>SEARCH("Completed", F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+      <formula1>"Completed, Incomplete, In-Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.40069444444444452</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E14" si="1">D2-C2</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.40069444444444452</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5972222222222165E-2</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.40555555555555561</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.40625</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444438647E-4</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.53125</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.53125</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.59375</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f>D16-C16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f>D17-C17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f>D18-C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f>D19-C19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f>D20-C20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E21" s="8">
+        <f>D21-C15</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0.22152777777777766</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="H4" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="H5" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555913E-3</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222654E-3</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>6.4583333333333381E-2</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="35">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="35">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="35">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0.46250000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.4375</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="35">
+        <v>0.44097222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>-0.4201388888888889</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F22"/>
@@ -1478,13 +6612,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1497,12 +6631,555 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A47" sqref="A46:B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>6.0416666666666674E-2</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0.1784722222222222</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="35">
+        <v>0.46527777777777779</v>
+      </c>
+      <c r="D28" s="35">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="35">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0.46388888888888891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="35">
+        <v>0.46875</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0.47222222222222221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="35">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D31" s="35">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="35">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D32" s="35">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="35">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D33" s="35">
+        <v>0.51388888888888884</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="35">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D34" s="35">
+        <v>0.49652777777777779</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="35">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0.51875000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="35">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="D36" s="35">
+        <v>0.5229166666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="35">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="D37" s="35">
+        <v>0.52569444444444446</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="35">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="D40" s="35">
+        <v>0.53819444444444442</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="35">
+        <v>0.53888888888888886</v>
+      </c>
+      <c r="D41" s="35">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="35">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D42" s="35">
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,13 +7552,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1898,8 +7575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,13 +7685,13 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
@@ -2044,7 +7721,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="8"/>
@@ -2060,7 +7737,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="8"/>
@@ -2090,7 +7767,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -2204,7 +7881,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -2263,21 +7940,1839 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{E827D9D5-7E09-4911-A997-30D822F473CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Completed, Incomplete, In-Progress"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.39444444444444438</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.40208333333333329</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>7.6388888888889173E-3</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.40208333333333329</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.41180555555555548</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12">
+        <v>0.19444444444444439</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.19444444444444439</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12">
+        <v>0.70277777777777772</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.70277777777777772</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0.94583333333333319</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2222222222222143E-2</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.60624999999999996</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.60624999999999996</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>9.0277777777778567E-3</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0.10069444444444453</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Daily Activity Tracker/Daily_Activity_Tracker_September.xlsx
+++ b/Daily Activity Tracker/Daily_Activity_Tracker_September.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chandrakanb\chandrakanb\Daily Activity Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02334CEC-8839-4859-B82B-F85C4730D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D41F2D7-1286-4891-BE86-60651311E99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day_month" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="25th_September" sheetId="18" r:id="rId18"/>
     <sheet name="26th_September" sheetId="19" r:id="rId19"/>
     <sheet name="27th_September" sheetId="20" r:id="rId20"/>
+    <sheet name="30th_September" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="162">
   <si>
     <t xml:space="preserve">Sr.No. </t>
   </si>
@@ -519,39 +520,6 @@
   </si>
   <si>
     <t>Raise Ticket for Unipro time log not replected</t>
-  </si>
-  <si>
-    <t>Kite Build 200.11 Installation</t>
-  </si>
-  <si>
-    <t>Take backup of all required files</t>
-  </si>
-  <si>
-    <t>Take screenshot of all required preference page settings.</t>
-  </si>
-  <si>
-    <t>Uninstall Kite Build 200.9.</t>
-  </si>
-  <si>
-    <t>Install Kite Build 200.11.</t>
-  </si>
-  <si>
-    <t>Place all required files from backup.</t>
-  </si>
-  <si>
-    <t>Set all required preference page manually.</t>
-  </si>
-  <si>
-    <t>Set camera settings manually.</t>
-  </si>
-  <si>
-    <t>Helped Yukta to set robotic arm setting on Bench X</t>
-  </si>
-  <si>
-    <t>Taken Git Pull For Both Repo's on Bench 09</t>
-  </si>
-  <si>
-    <t>Configered Resource file location for Both Repo's</t>
   </si>
   <si>
     <t xml:space="preserve"> Kite Build 200.11 Installation
@@ -567,22 +535,75 @@
 - Configered Resource file location for Both Repo's.</t>
   </si>
   <si>
-    <t>- Observed Daytime Execution on Bench 09.</t>
-  </si>
-  <si>
-    <t>Performed Basic sanity on Bench 09.</t>
-  </si>
-  <si>
-    <t>- Performed Basic sanity on Bench 09.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Triggered Daytime Execution on Bench 09 through config </t>
-  </si>
-  <si>
     <t>Triggered Daytime Execution on Bench 09.
 - Performed Basic sanity on Bench 09.
 - Triggered Daytime Execution on Bench 09 through config 
 - Observed Daytime Execution on Bench 09.</t>
+  </si>
+  <si>
+    <t>Kite Build 200.11 Installation</t>
+  </si>
+  <si>
+    <t>Take backup of all required files</t>
+  </si>
+  <si>
+    <t>Take screenshot of all required preference page settings.</t>
+  </si>
+  <si>
+    <t>Uninstall Kite Build 200.9.</t>
+  </si>
+  <si>
+    <t>Install Kite Build 200.11.</t>
+  </si>
+  <si>
+    <t>Place all required files from backup.</t>
+  </si>
+  <si>
+    <t>Set all required preference page manually.</t>
+  </si>
+  <si>
+    <t>Helped Yukta to set robotic arm setting on Bench X</t>
+  </si>
+  <si>
+    <t>Set camera settings manually.</t>
+  </si>
+  <si>
+    <t>Taken Git Pull For Both Repo's on Bench 09</t>
+  </si>
+  <si>
+    <t>Configered Resource file location for Both Repo's</t>
+  </si>
+  <si>
+    <t>Performed Basic sanity on Bench 09.</t>
+  </si>
+  <si>
+    <t>- Performed Basic sanity on Bench 09.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Triggered Daytime Execution on Bench 09 through config </t>
+  </si>
+  <si>
+    <t>- Observed Daytime Execution on Bench 09.</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Attended the DSR Meeting.</t>
+  </si>
+  <si>
+    <t>Performed Calibration on Bench 09.
+- Performed Calibration on Bench 09.
+- Videos and Snips are Uploaded to Git.</t>
+  </si>
+  <si>
+    <t>Helped Kite Team Member Swapnil for the Kite Launching Issue on Bench 09.</t>
+  </si>
+  <si>
+    <t>Performed Sanity on Bench 06.</t>
+  </si>
+  <si>
+    <t>Created Skelaton for "KPIT_TC_DRT_RGB_009".</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1000,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2920,13 +2962,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3356,13 +3398,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3917,13 +3959,13 @@
     <row r="40" spans="8:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="F2:F28">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4363,13 +4405,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4387,7 +4429,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5001,13 +5043,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F15 F17:F31">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6612,13 +6654,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6635,8 +6677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A47" sqref="A46:B54"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6687,7 +6729,9 @@
         <f t="shared" ref="E2:E21" si="1">D2-C2</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -6707,7 +6751,9 @@
         <f t="shared" si="1"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -6727,7 +6773,9 @@
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -6747,7 +6795,9 @@
         <f t="shared" si="1"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -6763,13 +6813,13 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C7" s="11">
         <v>0.46527777777777779</v>
@@ -6781,15 +6831,17 @@
         <f t="shared" si="1"/>
         <v>6.0416666666666674E-2</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="8"/>
@@ -6797,7 +6849,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -6827,7 +6881,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -6857,7 +6913,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -6963,7 +7021,9 @@
         <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -6983,7 +7043,9 @@
         <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
@@ -6999,7 +7061,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
@@ -7016,12 +7080,12 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C28" s="35">
         <v>0.46527777777777779</v>
@@ -7032,7 +7096,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C29" s="35">
         <v>0.4513888888888889</v>
@@ -7043,7 +7107,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C30" s="35">
         <v>0.46875</v>
@@ -7054,7 +7118,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C31" s="35">
         <v>0.47499999999999998</v>
@@ -7065,7 +7129,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C32" s="35">
         <v>0.4826388888888889</v>
@@ -7076,7 +7140,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C33" s="35">
         <v>0.4861111111111111</v>
@@ -7087,7 +7151,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C34" s="35">
         <v>0.49305555555555558</v>
@@ -7098,7 +7162,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C35" s="35">
         <v>0.51388888888888884</v>
@@ -7109,7 +7173,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C36" s="35">
         <v>0.51875000000000004</v>
@@ -7120,7 +7184,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C37" s="35">
         <v>0.5229166666666667</v>
@@ -7160,7 +7224,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C42" s="35">
         <v>0.54166666666666663</v>
@@ -7168,6 +7232,408 @@
       <c r="D42" s="35">
         <v>0.63541666666666663</v>
       </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>SEARCH("In-Progress", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>SEARCH("Incomplete", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>SEARCH("Completed", F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{94E83C89-609D-4FC8-B6BA-5305C65972E9}">
+      <formula1>"Completed, Incomplete, In-Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <f t="shared" ref="A2:A21" si="0">ROW() - ROW($A$1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E21" si="1">D2-C2</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.4375</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1250000000000056E-2</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>SUM(E2:E21)</f>
+        <v>9.3750000000000056E-2</v>
+      </c>
+      <c r="F22" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7552,13 +8018,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7940,13 +8406,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>SEARCH("In-Progress", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>SEARCH("Incomplete", F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>SEARCH("Completed", F2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Daily Activity Tracker/Daily_Activity_Tracker_September.xlsx
+++ b/Daily Activity Tracker/Daily_Activity_Tracker_September.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chandrakanb\chandrakanb\Daily Activity Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D41F2D7-1286-4891-BE86-60651311E99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDCCB20-3243-4B25-80C2-16BDA3A52999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,10 +586,10 @@
     <t>- Observed Daytime Execution on Bench 09.</t>
   </si>
   <si>
+    <t>Attended the DSR Meeting.</t>
+  </si>
+  <si>
     <t>Break</t>
-  </si>
-  <si>
-    <t>Attended the DSR Meeting.</t>
   </si>
   <si>
     <t>Performed Calibration on Bench 09.
@@ -600,10 +600,10 @@
     <t>Helped Kite Team Member Swapnil for the Kite Launching Issue on Bench 09.</t>
   </si>
   <si>
+    <t>Created Skelaton for "KPIT_TC_DRT_RGB_009".</t>
+  </si>
+  <si>
     <t>Performed Sanity on Bench 06.</t>
-  </si>
-  <si>
-    <t>Created Skelaton for "KPIT_TC_DRT_RGB_009".</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1468,7 +1489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1794,6 +1817,22 @@
       <c r="F22" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>SEARCH("In-Progress", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="2">
+      <formula>SEARCH("Incomplete", F2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="3">
+      <formula>SEARCH("Completed", F2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{B731577B-96B2-40C7-A2B6-1D7957255978}">
+      <formula1>"Completed, Incomplete, In-Progress"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5476,7 +5515,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5874,7 +5913,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6677,8 +6716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7246,7 +7285,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{94E83C89-609D-4FC8-B6BA-5305C65972E9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"Completed, Incomplete, In-Progress"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7258,8 +7297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7358,7 +7397,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="11">
         <v>0.4375</v>
@@ -7378,7 +7417,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="11">
         <v>0.45833333333333331</v>
@@ -7392,7 +7431,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7462,7 +7501,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -7534,7 +7573,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -8800,7 +8839,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
